--- a/doc/charger_list.xlsx
+++ b/doc/charger_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>wekkend busy time</t>
+          <t>weekend busy time</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -513,21 +513,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KL001542</t>
+          <t>KL001371</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(주)이에이치씨</t>
+          <t>인덕원 IT밸리</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>경기도 남양주시 퇴계원읍 경춘북로 461</t>
+          <t>경기도 의왕시 이미로 40</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,58 +545,56 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>43.95</v>
+        <v>50.92</v>
       </c>
       <c r="I2" t="n">
-        <v>18798.38</v>
+        <v>29456.25</v>
       </c>
       <c r="J2" t="n">
-        <v>9.300000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[10  8  2 22  7]</t>
+          <t>[ 5  8 16 23 22]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[ 1 20 19  0 12]</t>
+          <t>[ 2 20 21 19 18]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[ 7  8 12 14 17]</t>
+          <t>[ 8 10  5 12 13]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[13 19 20 15 23]</t>
+          <t>[18  2 21 16 17]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KL001791</t>
+          <t>KL001542</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>영종도 스타타워</t>
+          <t>(주)이에이치씨</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>인천광역시 중구 자연대로 47</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>경기도 남양주시 퇴계원읍 경춘북로 461</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -614,35 +612,35 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>39.18</v>
+        <v>43.95</v>
       </c>
       <c r="I3" t="n">
-        <v>20235.35</v>
+        <v>18798.38</v>
       </c>
       <c r="J3" t="n">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[18  1 22 20 11]</t>
+          <t>[10  8  2 22  7]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[ 6 23 19  8  0]</t>
+          <t>[ 1 20 19  0 12]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[12 14 20 16  7]</t>
+          <t>[ 7  8 12 14 17]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[ 8 11 19  0  9]</t>
+          <t>[13 19 20 15 23]</t>
         </is>
       </c>
     </row>
@@ -662,10 +660,8 @@
           <t>인천광역시 중구 자연대로 47</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -712,6 +708,276 @@
       <c r="O4" t="inlineStr">
         <is>
           <t>[ 8 11 19  0  9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KL001672</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>대구 삼성생명</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>대구광역시 중구 달구벌대로 2095</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>24시간</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26898.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[14 11 12 18  9]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[13 15 17  8 19]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[11 13 17 12  9]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[ 6  8  2 19 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KL001792</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>인성실업쓰리엠파크</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>인천광역시 서구 청라한내로72번길 23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>24시간</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18795.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[ 7  9  8 10 20]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[16 21 14 23 17]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[ 6 11 18 16 14]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[ 8 13  2 10 15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KL001085</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>충북대병원 장례식장</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>충청북도 청주시 서원구 서부로 1473</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24시간</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18034.91</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[23 22 10 19  6]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[18 17 20  8 14]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[12 21 14 17 18]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[ 6 11 10 20 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KL001085</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>충북대병원 장례식장</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>충청북도 청주시 서원구 서부로 1473</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24시간</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18034.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[23 22 10 19  6]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[18 17 20  8 14]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[12 21 14 17 18]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[ 6 11 10 20 22]</t>
         </is>
       </c>
     </row>

--- a/doc/charger_list.xlsx
+++ b/doc/charger_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,75 +912,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KL001085</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>충북대병원 장례식장</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>충청북도 청주시 서원구 서부로 1473</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>24시간</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>전체</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18034.91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[23 22 10 19  6]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[18 17 20  8 14]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[12 21 14 17 18]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[ 6 11 10 20 22]</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/doc/charger_list.xlsx
+++ b/doc/charger_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,63 +471,63 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1회 충전시간</t>
+          <t>one_charging_time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1회 충전량</t>
+          <t>one_charging_capacity</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>week occupation</t>
+          <t>week_occupation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>weekend occupation</t>
+          <t>weekend_occupation</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>week busy time</t>
+          <t>week_busy_time</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>week worst time</t>
+          <t>week_worst_time</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>weekend busy time</t>
+          <t>weekend_busy_time</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>weekend worst time</t>
+          <t>weekend_worst_time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KL001371</t>
+          <t>KL001085</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>인덕원 IT밸리</t>
+          <t>충북대병원 장례식장</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>경기도 의왕시 이미로 40</t>
+          <t>충청북도 청주시 서원구 서부로 1473</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -536,65 +536,65 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24시간</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>전체</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>50.92</v>
+        <v>33.35</v>
       </c>
       <c r="I2" t="n">
-        <v>29456.25</v>
+        <v>18034.91</v>
       </c>
       <c r="J2" t="n">
-        <v>23.1</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[ 5  8 16 23 22]</t>
+          <t>[23 22 10 19  6]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[ 2 20 21 19 18]</t>
+          <t>[18 17 20  8 14]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[ 8 10  5 12 13]</t>
+          <t>[12 21 14 17 18]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[18  2 21 16 17]</t>
+          <t>[ 6 11 10 20 22]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KL001542</t>
+          <t>KL000008</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(주)이에이치씨</t>
+          <t>씨유 서귀태흥점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>경기도 남양주시 퇴계원읍 경춘북로 461</t>
+          <t>제주특별자치도 서귀포시 남원읍 일주동로 6745</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -603,61 +603,61 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24시간</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>전체</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>43.95</v>
+        <v>14.96</v>
       </c>
       <c r="I3" t="n">
-        <v>18798.38</v>
+        <v>8226.08</v>
       </c>
       <c r="J3" t="n">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[10  8  2 22  7]</t>
+          <t>[19 11 17 16 12]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[ 1 20 19  0 12]</t>
+          <t>[10 13 14 21 18]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[ 7  8 12 14 17]</t>
+          <t>[17 15 11 14  9]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[13 19 20 15 23]</t>
+          <t>[13 23 22  9 14]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KL001791</t>
+          <t>KL000006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영종도 스타타워</t>
+          <t>씨유 표선남촌점</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>인천광역시 중구 자연대로 47</t>
+          <t>제주특별자치도 서귀포시 표선면 표선동서로 138</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -670,61 +670,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24시간</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>전체</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>39.18</v>
+        <v>30.7</v>
       </c>
       <c r="I4" t="n">
-        <v>20235.35</v>
+        <v>18502.03</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[18  1 22 20 11]</t>
+          <t>[21  7 18  9 22]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[ 6 23 19  8  0]</t>
+          <t>[15 20 19 10 17]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[12 14 20 16  7]</t>
+          <t>[13 10 18  9 20]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[ 8 11 19  0  9]</t>
+          <t>[11 12 21  9 20]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KL001672</t>
+          <t>KL000009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대구 삼성생명</t>
+          <t>씨유 교래점</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>대구광역시 중구 달구벌대로 2095</t>
+          <t>제주특별자치도 제주시 조천읍 비자림로 684</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -737,65 +737,65 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24시간</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>전체</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>49.13</v>
+        <v>17.71</v>
       </c>
       <c r="I5" t="n">
-        <v>26898.32</v>
+        <v>9512.02</v>
       </c>
       <c r="J5" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[14 11 12 18  9]</t>
+          <t>[18 12 11 21  8]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13 15 17  8 19]</t>
+          <t>[14 15 20  7  9]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[11 13 17 12  9]</t>
+          <t>[11 13  8 12 14]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[ 6  8  2 19 10]</t>
+          <t>[18 10 19 16 17]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KL001792</t>
+          <t>KL001542</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>인성실업쓰리엠파크</t>
+          <t>(주)이에이치씨</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>인천광역시 서구 청라한내로72번길 23</t>
+          <t>경기도 남양주시 퇴계원읍 경춘북로 461</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -804,111 +804,1715 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24시간</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>전체</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>33.19</v>
+        <v>43.95</v>
       </c>
       <c r="I6" t="n">
-        <v>18795.91</v>
+        <v>18798.38</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[ 7  9  8 10 20]</t>
+          <t>[10  8  2 22  7]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[16 21 14 23 17]</t>
+          <t>[ 1 20 19  0 12]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[ 6 11 18 16 14]</t>
+          <t>[ 7  8 12 14 17]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[ 8 13  2 10 15]</t>
+          <t>[13 19 20 15 23]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KL001085</t>
+          <t>KL001825</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>충북대병원 장례식장</t>
+          <t>한숲이시아팰리스</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>충청북도 청주시 서원구 서부로 1473</t>
+          <t>대구광역시 동구 팔공로51길 5</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>294.67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>28374.68</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[23 22 20 21 17]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[10 16 14  0 12]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[19 22 21 17 23]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[12 11  2 14 20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KL001672</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>대구 삼성생명</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>대구광역시 중구 달구벌대로 2095</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>24시간</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>전체</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18034.91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[23 22 10 19  6]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[18 17 20  8 14]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[12 21 14 17 18]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[ 6 11 10 20 22]</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26898.32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[14 11 12 18  9]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[13 15 17  8 19]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[11 13 17 12  9]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[ 6  8  2 19 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KL001885</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>창성비케어</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>경기도 평택시 고덕면 고덕여염5길 23-9</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10527.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[18 12 15 11 10]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[22 23 21  9 17]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[16 12 14 11  7]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[ 7 11 14 12 16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KL001789</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>케이티온(세종)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세종특별자치시 다정중앙로 52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4155</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[18 11 10 13 12]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[15 14 12 13 10]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[16 17 13 18]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[13 18 16 17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KL001791</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>영종도 스타타워</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>인천광역시 중구 자연대로 47</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20235.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[18  1 22 20 11]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[ 6 23 19  8  0]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[12 14 20 16  7]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[ 8 11 19  0  9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KL001802</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>광주보건환경연구원</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>광주광역시 서구 무진대로 584</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22527.41</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[12 13 11 15  9]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[14 22 18  7 17]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[ 9 11 13  7  8]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[15 14  5  7  8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KL001792</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>인성실업쓰리엠파크</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>인천광역시 서구 청라한내로72번길 23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18795.91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[ 7  9  8 10 20]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[16 21 14 23 17]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[ 6 11 18 16 14]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[ 8 13  2 10 15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KL001809</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>대구종합유통단지 의류관</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>대구광역시 북구 유통단지로14길 22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33319.21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[17 15 16 13 12]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[ 9 14 20 12 13]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[14 17 15 18 16]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[11 12 13 16 18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KL001810</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>세원테크노밸리</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 수출대로 152</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27080.77</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[ 8 14 11 12  7]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[13 17 15 10  7]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KL001810</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>세원테크노밸리</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 수출대로 152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24733.82</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[14  6 16 12 15]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[11  9 10 13  7]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[ 1 12  6  7]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[ 7  6 12  1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KL001809</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>대구종합유통단지 의류관</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>대구광역시 북구 유통단지로14길 22</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24892.56</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[ 8 11  9 13 15]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[12 18 17 16 14]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[16 13 10 17 15]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[18 20 14 15 17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KL001810</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>세원테크노밸리</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 수출대로 152</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33331.67</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[14 10  9  8 13]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[13  8  9 10 14]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KL001809</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>대구종합유통단지 의류관</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>대구광역시 북구 유통단지로14길 22</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25645.52</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[ 9 15 14 18 12]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[10 16 13 12 14]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[16 18 15 14 13]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[12 13 14 15 18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KL001810</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>세원테크노밸리</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 수출대로 152</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>37540.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[19 21 11 22 18]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[17  8 15 16 13]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[23  7 20 18 19]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[16 10 17 11 18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KL001810</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>세원테크노밸리</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 수출대로 152</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29837.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[ 5 18 13 14  6]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[10 11 17  7 15]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[ 6 17 10]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[10 17  6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KL001809</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>대구종합유통단지 의류관</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>대구광역시 북구 유통단지로14길 22</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19757.58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[12 17 18 15 16]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[13 11 16 15 18]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[13 14 18 10 15]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[12 15 10 18 14]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KL001825</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>한숲이시아팰리스</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>대구광역시 동구 팔공로51길 5</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28043.33</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[18 15 19]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[19 15 18]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KL001827</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>시화병원 외래주차장</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 옥구천동로374번길 83</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29990.81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[20 15  7 19 11]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[21 16 14  9 18]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[ 8 23  9  7]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[ 7  9 23  8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>KL001827</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>시화병원 외래주차장</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 옥구천동로374번길 83</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12661.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[ 9 13  7 10 12]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[ 8 16 11 15 14]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[11 12]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[12 11]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KL001856</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>현다이엔지세종사옥</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>세종특별자치시 집현중앙4로 16</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23913.56</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[18  7  6 15 16]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[14 11  9 13 17]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[ 9 19]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[19  9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KL001975</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>신성전력</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>대전광역시 유성구 테크노중앙로 47</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37371.67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[22  9 15 16 12]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[20 13  7 21 19]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[11 13 19 16 18]</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[20 12 16 18 19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KL002061</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>매화리드스마트스퀘어</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>경기도 시흥시 매화산단3길 1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21415.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[21 10 17 14 20]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[ 0 16 15  9 12]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[15  8 19 13]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[13 19  8 15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KL001881</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(주)피아크</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>부산광역시 영도구 해양로195번길 180</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24497.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[13 14 20 10 11]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[21 22 19 18 12]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[20 10 13 17 14]</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[11  9 12 19 18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KL001371</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>인덕원 IT밸리</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>경기도 의왕시 이미로 40</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29456.25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[ 5  8 16 23 22]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[ 2 20 21 19 18]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[ 8 10  5 12 13]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[18  2 21 16 17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KL001829</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>김해 휴앤락몰</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>경상남도 김해시 내외중앙로 137</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>공공주택</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17309.26</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[17 18 15 12  8]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[11  1  0 23  2]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[16 19 12  9 14]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[ 0 23 13 10 14]</t>
         </is>
       </c>
     </row>

--- a/doc/charger_list.xlsx
+++ b/doc/charger_list.xlsx
@@ -436,77 +436,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>station_id</t>
+          <t>충전소아이디</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>station_name</t>
+          <t>충전소명</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>주소</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>charger_id</t>
+          <t>충전기아이디</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>충전소유형</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>operating_time</t>
+          <t>운영시간</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>사용대상</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>one_charging_time</t>
+          <t>1회충전시간</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>one_charging_capacity</t>
+          <t>1회충전량</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>week_occupation</t>
+          <t>주중이용률</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>weekend_occupation</t>
+          <t>주말이용률</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>week_busy_time</t>
+          <t>주중주요시간대</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>week_worst_time</t>
+          <t>주중여유시간대</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>weekend_busy_time</t>
+          <t>주말주요시간대</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>weekend_worst_time</t>
+          <t>주말여유시간대</t>
         </is>
       </c>
     </row>
@@ -529,15 +529,11 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -545,10 +541,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33.35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>18034.91</v>
+        <v>18035</v>
       </c>
       <c r="J2" t="n">
         <v>6.2</v>
@@ -596,15 +592,11 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -612,10 +604,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.96</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>8226.08</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -663,15 +655,11 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -679,10 +667,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>18502.03</v>
+        <v>18502</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -730,15 +718,11 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -746,10 +730,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17.71</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>9512.02</v>
+        <v>9512</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -797,15 +781,11 @@
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -813,10 +793,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>43.95</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>18798.38</v>
+        <v>18798</v>
       </c>
       <c r="J6" t="n">
         <v>9.300000000000001</v>
@@ -864,15 +844,11 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -880,10 +856,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>294.67</v>
+        <v>295</v>
       </c>
       <c r="I7" t="n">
-        <v>28374.68</v>
+        <v>28375</v>
       </c>
       <c r="J7" t="n">
         <v>25.7</v>
@@ -931,15 +907,11 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -947,10 +919,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>49.13</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>26898.32</v>
+        <v>26898</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
@@ -998,15 +970,11 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1014,10 +982,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.52</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>10527.15</v>
+        <v>10527</v>
       </c>
       <c r="J9" t="n">
         <v>2.8</v>
@@ -1065,15 +1033,11 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1081,7 +1045,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
         <v>4155</v>
@@ -1132,15 +1096,11 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1148,10 +1108,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>39.18</v>
+        <v>39</v>
       </c>
       <c r="I11" t="n">
-        <v>20235.35</v>
+        <v>20235</v>
       </c>
       <c r="J11" t="n">
         <v>7.5</v>
@@ -1199,15 +1159,11 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1215,10 +1171,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>52.74</v>
+        <v>53</v>
       </c>
       <c r="I12" t="n">
-        <v>22527.41</v>
+        <v>22527</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -1266,15 +1222,11 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1282,10 +1234,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="I13" t="n">
-        <v>18795.91</v>
+        <v>18796</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
@@ -1333,15 +1285,11 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1349,10 +1297,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>54.91</v>
+        <v>55</v>
       </c>
       <c r="I14" t="n">
-        <v>33319.21</v>
+        <v>33319</v>
       </c>
       <c r="J14" t="n">
         <v>4.6</v>
@@ -1400,15 +1348,11 @@
       <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1416,10 +1360,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>55.67</v>
+        <v>56</v>
       </c>
       <c r="I15" t="n">
-        <v>27080.77</v>
+        <v>27081</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
@@ -1465,15 +1409,11 @@
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1481,10 +1421,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>49.25</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>24733.82</v>
+        <v>24734</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
@@ -1532,15 +1472,11 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1548,10 +1484,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>59.95</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
-        <v>24892.56</v>
+        <v>24893</v>
       </c>
       <c r="J17" t="n">
         <v>4.6</v>
@@ -1599,15 +1535,11 @@
       <c r="D18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1615,10 +1547,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>56.52</v>
+        <v>57</v>
       </c>
       <c r="I18" t="n">
-        <v>33331.67</v>
+        <v>33332</v>
       </c>
       <c r="J18" t="n">
         <v>3.9</v>
@@ -1664,15 +1596,11 @@
       <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1680,10 +1608,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>53.21</v>
+        <v>53</v>
       </c>
       <c r="I19" t="n">
-        <v>25645.52</v>
+        <v>25646</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -1731,15 +1659,11 @@
       <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1747,10 +1671,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>71.18000000000001</v>
+        <v>71</v>
       </c>
       <c r="I20" t="n">
-        <v>37540.38</v>
+        <v>37540</v>
       </c>
       <c r="J20" t="n">
         <v>6.8</v>
@@ -1798,15 +1722,11 @@
       <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>24</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1814,10 +1734,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>66.52</v>
+        <v>67</v>
       </c>
       <c r="I21" t="n">
-        <v>29837.35</v>
+        <v>29837</v>
       </c>
       <c r="J21" t="n">
         <v>6.1</v>
@@ -1865,15 +1785,11 @@
       <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1881,10 +1797,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="I22" t="n">
-        <v>19757.58</v>
+        <v>19758</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -1932,15 +1848,11 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1948,10 +1860,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>44.92</v>
+        <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>28043.33</v>
+        <v>28043</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -1999,15 +1911,11 @@
       <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2015,10 +1923,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>54.08</v>
+        <v>54</v>
       </c>
       <c r="I24" t="n">
-        <v>29990.81</v>
+        <v>29991</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
@@ -2066,15 +1974,11 @@
       <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2082,10 +1986,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>25.21</v>
+        <v>25</v>
       </c>
       <c r="I25" t="n">
-        <v>12661.3</v>
+        <v>12661</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -2133,15 +2037,11 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2149,10 +2049,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="I26" t="n">
-        <v>23913.56</v>
+        <v>23914</v>
       </c>
       <c r="J26" t="n">
         <v>8.5</v>
@@ -2200,15 +2100,11 @@
       <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2216,10 +2112,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>54.94</v>
+        <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>37371.67</v>
+        <v>37372</v>
       </c>
       <c r="J27" t="n">
         <v>4.1</v>
@@ -2267,15 +2163,11 @@
       <c r="D28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2283,10 +2175,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>41.28</v>
+        <v>41</v>
       </c>
       <c r="I28" t="n">
-        <v>21415.4</v>
+        <v>21415</v>
       </c>
       <c r="J28" t="n">
         <v>4.9</v>
@@ -2334,15 +2226,11 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2350,10 +2238,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>48.28</v>
+        <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>24497.98</v>
+        <v>24498</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
@@ -2401,15 +2289,11 @@
       <c r="D30" t="n">
         <v>5</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2417,10 +2301,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>50.92</v>
+        <v>51</v>
       </c>
       <c r="I30" t="n">
-        <v>29456.25</v>
+        <v>29456</v>
       </c>
       <c r="J30" t="n">
         <v>23.1</v>
@@ -2468,15 +2352,11 @@
       <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>공공주택</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>24h</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2484,10 +2364,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>33.91</v>
+        <v>34</v>
       </c>
       <c r="I31" t="n">
-        <v>17309.26</v>
+        <v>17309</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
